--- a/storage/import-templates/programs-template.xlsx
+++ b/storage/import-templates/programs-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\OneDrive\Desktop\import-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEFCA60-385A-4951-B458-E765F1EC93BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549EE750-7EB4-44EC-B038-26A0A67A3402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>program_status</t>
   </si>
@@ -51,9 +51,6 @@
     <t>funding_agency</t>
   </si>
   <si>
-    <t>coordination_fund</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -82,6 +79,15 @@
   </si>
   <si>
     <t>form_of_development</t>
+  </si>
+  <si>
+    <t>implementing_agency</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>research_center</t>
   </si>
 </sst>
 </file>
@@ -130,13 +136,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,34 +426,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -462,38 +471,50 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/import-templates/programs-template.xlsx
+++ b/storage/import-templates/programs-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\OneDrive\Desktop\import-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\OneDrive\Desktop\RTMS\storage\import-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549EE750-7EB4-44EC-B038-26A0A67A3402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FCDDA6-E82D-452A-A4CA-37EAA6D535AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>implementing_agency</t>
   </si>
   <si>
+    <t>research_center</t>
+  </si>
+  <si>
     <t>keywords</t>
-  </si>
-  <si>
-    <t>research_center</t>
   </si>
 </sst>
 </file>
@@ -136,15 +136,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,30 +424,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -474,7 +471,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -507,14 +504,8 @@
         <v>14</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/import-templates/programs-template.xlsx
+++ b/storage/import-templates/programs-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\OneDrive\Desktop\RTMS\storage\import-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FCDDA6-E82D-452A-A4CA-37EAA6D535AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555C6A95-33FB-414C-8253-6C22E25F3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>program_status</t>
   </si>
@@ -88,12 +88,48 @@
   </si>
   <si>
     <t>keywords</t>
+  </si>
+  <si>
+    <t>import 2</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>["CLSU"]</t>
+  </si>
+  <si>
+    <t>["CLAARRDEC, CERDAC"]</t>
+  </si>
+  <si>
+    <t>Marlon Naagas</t>
+  </si>
+  <si>
+    <t>Khavee Agustus Botangen</t>
+  </si>
+  <si>
+    <t>tesm import desc 2</t>
+  </si>
+  <si>
+    <t>year 2</t>
+  </si>
+  <si>
+    <t>Local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,13 +172,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,26 +465,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -473,10 +514,10 @@
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -505,6 +546,59 @@
       </c>
       <c r="R1" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>222231</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5">
+        <v>36226</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45362</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
